--- a/lab13.xlsx
+++ b/lab13.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\python\Lab3_13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99A4BAD-DCCC-4D22-8E60-3FBEE08913F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B43A56A-23D4-4BE1-8350-2884C24BBAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4248" yWindow="360" windowWidth="17280" windowHeight="10500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab13" sheetId="1" r:id="rId1"/>
     <sheet name="Yung" sheetId="2" r:id="rId2"/>
+    <sheet name="D" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ein</t>
   </si>
@@ -59,6 +60,12 @@
   </si>
   <si>
     <t>fourth</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
   </si>
 </sst>
 </file>
@@ -389,7 +396,7 @@
   <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B2" sqref="B2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279F20B6-B734-4C53-B696-070074D8FB13}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -788,4 +795,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7473C829-2BFE-4C5D-B189-BAC0877EF7E5}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2.74</v>
+      </c>
+      <c r="B2">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.68</v>
+      </c>
+      <c r="B3">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.76</v>
+      </c>
+      <c r="B4">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.7800000000000002</v>
+      </c>
+      <c r="B5">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.7199999999999998</v>
+      </c>
+      <c r="B6">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2.7199999999999998</v>
+      </c>
+      <c r="B7">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2.7</v>
+      </c>
+      <c r="B8">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2.68</v>
+      </c>
+      <c r="B9">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2.68</v>
+      </c>
+      <c r="B10">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2.69</v>
+      </c>
+      <c r="B11">
+        <v>2.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>